--- a/va_facility_data_2025-02-20/Oxford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oxford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oxford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oxford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R205acbe0713d48c9a0616177dd8ba931"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rad452e18d0c446a9a3c70cd2456c9e1b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2af4cecce6194ce99d3a916818b6dcc7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd00c4e2c560342b49bfc66e2b37b550c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3a9b5f8c3704adb91cffb6b14161890"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e8006bbdc0449c3a25719ce9a6cad4a"/>
   </x:sheets>
 </x:workbook>
 </file>
